--- a/algorithm/fair_comparison/fc5/fair_comparison_stats_mix.xlsx
+++ b/algorithm/fair_comparison/fc5/fair_comparison_stats_mix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note_Database\Subject\MS Monographic Study\MS Phase6\MCU\SMRBS-ESP32\algorithm\fair_comparison\fc5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDEB588-A173-4E90-AB94-3E21A6150EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5E51AC-7118-440F-A9D8-D372F915AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <t>max</t>
   </si>
   <si>
-    <t>max</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>scale</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>pe16</t>
+  </si>
+  <si>
+    <t>max of mean</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,24 +538,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3680,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3692,22 +3674,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="6"/>
     </row>
@@ -3870,33 +3852,29 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="10">
         <v>26.136970495034401</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8">
         <v>31.404895072551302</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8">
         <v>28.458199253176801</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8">
         <v>27.724110969913301</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8">
         <v>17.938741601100599</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="2">
         <v>25.017580422602599</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="26"/>
+      <c r="H8" s="6"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3933,7 +3911,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <f>MAX(B3:G3)</f>
@@ -3963,7 +3941,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <f>B11/B3</f>
